--- a/Database/Arena Cards edit.xlsx
+++ b/Database/Arena Cards edit.xlsx
@@ -5,25 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corbin Baker\Desktop\FIELD SESSION SHIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corbin Baker\Desktop\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10632" windowHeight="6642" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10632" windowHeight="6642"/>
   </bookViews>
   <sheets>
     <sheet name="Support Cards" sheetId="1" r:id="rId1"/>
     <sheet name="Skill Cards" sheetId="9" r:id="rId2"/>
     <sheet name="Champion Cards" sheetId="10" r:id="rId3"/>
     <sheet name="Reward Cards" sheetId="11" r:id="rId4"/>
-    <sheet name="All Cards" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="185">
   <si>
     <t>Name</t>
   </si>
@@ -578,34 +577,13 @@
   </si>
   <si>
     <t>Deal 3 damage to an opponents leader: this damage cant be prevented</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>den</t>
-  </si>
-  <si>
-    <t>Trial</t>
-  </si>
-  <si>
-    <t>Reward</t>
-  </si>
-  <si>
-    <t>Champion</t>
-  </si>
-  <si>
-    <t>img url</t>
-  </si>
-  <si>
-    <t>http://pinktiger.com/janscustomcrystals/wp-content/themes/pinktiger/image/patterns/transparent/p51.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -630,17 +608,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -716,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -758,10 +725,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1046,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:F49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6342,2233 +6305,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H85"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:G56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="14">
-        <v>4</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="14">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="14">
-        <v>5</v>
-      </c>
-      <c r="D10" s="14">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14">
-        <v>5</v>
-      </c>
-      <c r="D11" s="14">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3</v>
-      </c>
-      <c r="D15" s="9">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9">
-        <v>3</v>
-      </c>
-      <c r="D16" s="9">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="9">
-        <v>3</v>
-      </c>
-      <c r="D17" s="9">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9">
-        <v>3</v>
-      </c>
-      <c r="D18" s="9">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>191</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="14">
-        <v>2</v>
-      </c>
-      <c r="D20" s="14">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="14">
-        <v>3</v>
-      </c>
-      <c r="D21" s="14">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="14">
-        <v>2</v>
-      </c>
-      <c r="D22" s="14">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="14">
-        <v>3</v>
-      </c>
-      <c r="D23" s="14">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="14">
-        <v>2</v>
-      </c>
-      <c r="D24" s="14">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>191</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="14">
-        <v>3</v>
-      </c>
-      <c r="D25" s="14">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>191</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="14">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="23">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="14">
-        <v>2</v>
-      </c>
-      <c r="D27" s="14">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="23">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>191</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="14">
-        <v>5</v>
-      </c>
-      <c r="D28" s="14">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>191</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="14">
-        <v>2</v>
-      </c>
-      <c r="D29" s="14">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>191</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="14">
-        <v>2</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="23">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="14">
-        <v>3</v>
-      </c>
-      <c r="D31" s="14">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="23">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="14">
-        <v>4</v>
-      </c>
-      <c r="D32" s="14">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="14">
-        <v>3</v>
-      </c>
-      <c r="D33" s="14">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="14">
-        <v>2</v>
-      </c>
-      <c r="D34" s="14">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>191</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="14">
-        <v>3</v>
-      </c>
-      <c r="D35" s="14">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="23">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>191</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="14">
-        <v>2</v>
-      </c>
-      <c r="D36" s="14">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>191</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="14">
-        <v>3</v>
-      </c>
-      <c r="D37" s="14">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>191</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="9">
-        <v>7</v>
-      </c>
-      <c r="D38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="23">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="14">
-        <v>7</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="23">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>191</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="9">
-        <v>7</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="23">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>191</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="14">
-        <v>7</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="23">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>191</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="9">
-        <v>7</v>
-      </c>
-      <c r="D42" s="9">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="23">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>191</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="9">
-        <v>7</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" s="23">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>191</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="9">
-        <v>7</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>191</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" s="9">
-        <v>7</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>191</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="14">
-        <v>7</v>
-      </c>
-      <c r="D46" s="9">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>191</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="14">
-        <v>7</v>
-      </c>
-      <c r="D47" s="9">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" s="23">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>191</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="14">
-        <v>7</v>
-      </c>
-      <c r="D48" s="9">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="23">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>191</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="14">
-        <v>7</v>
-      </c>
-      <c r="D49" s="9">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>191</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="14">
-        <v>0</v>
-      </c>
-      <c r="D50" s="9">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>191</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="14">
-        <v>0</v>
-      </c>
-      <c r="D51" s="9">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>191</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="14">
-        <v>0</v>
-      </c>
-      <c r="D52" s="9">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>191</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="14">
-        <v>0</v>
-      </c>
-      <c r="D53" s="9">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>191</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="14">
-        <v>0</v>
-      </c>
-      <c r="D54" s="9">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" s="23">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>191</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="14">
-        <v>0</v>
-      </c>
-      <c r="D55" s="9">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" s="23">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>191</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C56" s="14">
-        <v>0</v>
-      </c>
-      <c r="D56" s="9">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" s="23">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>191</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="14">
-        <v>0</v>
-      </c>
-      <c r="D57" s="9">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" s="23">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>191</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="14">
-        <v>0</v>
-      </c>
-      <c r="D58" s="9">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" s="23">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>191</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="14">
-        <v>0</v>
-      </c>
-      <c r="D59" s="9">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" s="23">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
-        <v>191</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" s="14">
-        <v>3</v>
-      </c>
-      <c r="D60" s="14">
-        <v>50</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" s="23">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>191</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" s="14">
-        <v>3</v>
-      </c>
-      <c r="D61" s="14">
-        <v>50</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" s="23">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>191</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" s="14">
-        <v>3</v>
-      </c>
-      <c r="D62" s="14">
-        <v>50</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" s="23">
-        <v>0</v>
-      </c>
-      <c r="G62" t="s">
-        <v>191</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="14">
-        <v>3</v>
-      </c>
-      <c r="D63" s="14">
-        <v>50</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" s="23">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>191</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C64" s="14">
-        <v>3</v>
-      </c>
-      <c r="D64" s="14">
-        <v>50</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" s="23">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>191</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="14">
-        <v>3</v>
-      </c>
-      <c r="D65" s="14">
-        <v>50</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" s="23">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>191</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C66" s="14">
-        <v>3</v>
-      </c>
-      <c r="D66" s="14">
-        <v>50</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" s="23">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>191</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="14">
-        <v>3</v>
-      </c>
-      <c r="D67" s="14">
-        <v>50</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" s="23">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>191</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="14">
-        <v>3</v>
-      </c>
-      <c r="D68" s="14">
-        <v>50</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" s="23">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>191</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A69" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C69" s="14">
-        <v>3</v>
-      </c>
-      <c r="D69" s="14">
-        <v>50</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" s="23">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>191</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A70" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="24">
-        <v>0</v>
-      </c>
-      <c r="D70" s="14">
-        <v>0</v>
-      </c>
-      <c r="E70" s="18">
-        <v>2</v>
-      </c>
-      <c r="F70" s="23">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>191</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="24">
-        <v>0</v>
-      </c>
-      <c r="D71" s="14">
-        <v>0</v>
-      </c>
-      <c r="E71" s="18">
-        <v>2</v>
-      </c>
-      <c r="F71" s="23">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>191</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="24">
-        <v>0</v>
-      </c>
-      <c r="D72" s="14">
-        <v>0</v>
-      </c>
-      <c r="E72" s="18">
-        <v>3</v>
-      </c>
-      <c r="F72" s="23">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>191</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="24">
-        <v>0</v>
-      </c>
-      <c r="D73" s="14">
-        <v>0</v>
-      </c>
-      <c r="E73" s="18">
-        <v>3</v>
-      </c>
-      <c r="F73" s="23">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>191</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="24">
-        <v>0</v>
-      </c>
-      <c r="D74" s="14">
-        <v>0</v>
-      </c>
-      <c r="E74" s="18">
-        <v>2</v>
-      </c>
-      <c r="F74" s="23">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>191</v>
-      </c>
-      <c r="H74" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A75" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="24">
-        <v>0</v>
-      </c>
-      <c r="D75" s="14">
-        <v>0</v>
-      </c>
-      <c r="E75" s="18">
-        <v>0</v>
-      </c>
-      <c r="F75" s="23">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>191</v>
-      </c>
-      <c r="H75" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A76" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="24">
-        <v>0</v>
-      </c>
-      <c r="D76" s="14">
-        <v>0</v>
-      </c>
-      <c r="E76" s="18">
-        <v>5</v>
-      </c>
-      <c r="F76" s="23">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>191</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A77" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="24">
-        <v>0</v>
-      </c>
-      <c r="D77" s="14">
-        <v>0</v>
-      </c>
-      <c r="E77" s="18">
-        <v>4</v>
-      </c>
-      <c r="F77" s="23">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>191</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A78" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="24">
-        <v>0</v>
-      </c>
-      <c r="D78" s="14">
-        <v>0</v>
-      </c>
-      <c r="E78" s="18">
-        <v>1</v>
-      </c>
-      <c r="F78" s="23">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>191</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A79" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="24">
-        <v>0</v>
-      </c>
-      <c r="D79" s="14">
-        <v>0</v>
-      </c>
-      <c r="E79" s="18">
-        <v>3</v>
-      </c>
-      <c r="F79" s="23">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>191</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A80" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="24">
-        <v>0</v>
-      </c>
-      <c r="D80" s="14">
-        <v>0</v>
-      </c>
-      <c r="E80" s="18">
-        <v>3</v>
-      </c>
-      <c r="F80" s="23">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>191</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="24">
-        <v>0</v>
-      </c>
-      <c r="D81" s="14">
-        <v>0</v>
-      </c>
-      <c r="E81" s="18">
-        <v>0</v>
-      </c>
-      <c r="F81" s="23">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
-        <v>191</v>
-      </c>
-      <c r="H81" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A82" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="24">
-        <v>0</v>
-      </c>
-      <c r="D82" s="14">
-        <v>0</v>
-      </c>
-      <c r="E82" s="18">
-        <v>4</v>
-      </c>
-      <c r="F82" s="23">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s">
-        <v>191</v>
-      </c>
-      <c r="H82" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A83" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="24">
-        <v>0</v>
-      </c>
-      <c r="D83" s="14">
-        <v>0</v>
-      </c>
-      <c r="E83" s="18">
-        <v>2</v>
-      </c>
-      <c r="F83" s="23">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
-        <v>191</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A84" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="24">
-        <v>0</v>
-      </c>
-      <c r="D84" s="14">
-        <v>0</v>
-      </c>
-      <c r="E84" s="18">
-        <v>4</v>
-      </c>
-      <c r="F84" s="23">
-        <v>0</v>
-      </c>
-      <c r="G84" t="s">
-        <v>191</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A85" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="24">
-        <v>0</v>
-      </c>
-      <c r="D85" s="14">
-        <v>0</v>
-      </c>
-      <c r="E85" s="18">
-        <v>5</v>
-      </c>
-      <c r="F85" s="23">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
-        <v>191</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>